--- a/biology/Médecine/Brosse_à_dents_électrique/Brosse_à_dents_électrique.xlsx
+++ b/biology/Médecine/Brosse_à_dents_électrique/Brosse_à_dents_électrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brosse_%C3%A0_dents_%C3%A9lectrique</t>
+          <t>Brosse_à_dents_électrique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une brosse à dents électrique est une brosse à dents qui utilise l'énergie électrique, fournie habituellement par une batterie, pour faire osciller rapidement la tête de brosse, soit d'un côté à l'autre, soit de manière circulaire, afin de réduire l’effort manuel d'une brosse à dents manuelle et améliorer le brossage des dents.
 Elle peut être combinée avec un hydropulseur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brosse_%C3%A0_dents_%C3%A9lectrique</t>
+          <t>Brosse_à_dents_électrique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première brosse à dents électrique, la Broxodent, a été inventée en Suisse en 1954 par le Dr Philippe-Guy Woog et son assistant l'ingénieur Manni Lamitray[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première brosse à dents électrique, la Broxodent, a été inventée en Suisse en 1954 par le Dr Philippe-Guy Woog et son assistant l'ingénieur Manni Lamitray.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brosse_%C3%A0_dents_%C3%A9lectrique</t>
+          <t>Brosse_à_dents_électrique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Brosse à dents sonique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une brosse à dents électrique "sonique" a un mouvement suffisamment rapide pour émettre des vibrations audibles. La plupart des brosses à dents électriques rechargeables de marques comme Sonicare et Oral-B font partie de cette catégorie, avec des fréquences allant de 200  à   400 Hz, soit de 12 000  à   24 000 oscillations ou 24 000  à   48 000 mouvements par minute.
 </t>
